--- a/data/outputs/OR_altmetric/8.xlsx
+++ b/data/outputs/OR_altmetric/8.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE26"/>
+  <dimension ref="A1:CF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1025,6 +1030,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1274,6 +1282,9 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1519,6 +1530,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1772,6 +1786,9 @@
         <v>0</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2017,6 +2034,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2268,6 +2288,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2519,6 +2542,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2770,6 +2796,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3030,6 +3059,9 @@
       </c>
       <c r="CE10" t="n">
         <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -3272,6 +3304,9 @@
         <v>0</v>
       </c>
       <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3509,6 +3544,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3748,6 +3786,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3999,6 +4040,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4250,6 +4294,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4510,6 +4557,9 @@
       </c>
       <c r="CE16" t="n">
         <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -4754,6 +4804,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5003,6 +5056,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5248,6 +5304,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5495,6 +5554,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5750,6 +5812,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5999,6 +6064,9 @@
         <v>0</v>
       </c>
       <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,6 +6312,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6487,6 +6558,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6730,6 +6804,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6989,6 +7066,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
